--- a/Report.xlsx
+++ b/Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Row Labels</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>SỐ LƯỢNG CÁC CÔNG TY FINTECH ĐƯỢC THÀNH LẬP THEO NĂM (2008-2017)</t>
-  </si>
-  <si>
-    <t>source: https://tinnhanhchungkhoan.vn/fin-tech/cuoc-cach-mang-cua-fintech-da-chuyen-huong-245177.html</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Số liệu.xlsx]Filter!PivotTable7</c:name>
+    <c:name>[Report.xlsx]Filter!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4130,11 +4127,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="797937600"/>
-        <c:axId val="797926720"/>
+        <c:axId val="1037135984"/>
+        <c:axId val="1037148496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="797937600"/>
+        <c:axId val="1037135984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,7 +4173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797926720"/>
+        <c:crossAx val="1037148496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4184,7 +4181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="797926720"/>
+        <c:axId val="1037148496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,7 +4231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797937600"/>
+        <c:crossAx val="1037135984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5140,7 +5137,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5725,7 +5722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -5819,8 +5816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6040,21 +6037,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="https://tinnhanhchungkhoan.vn/fin-tech/cuoc-cach-mang-cua-fintech-da-chuyen-huong-245177.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -3668,23 +3668,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Filter!$A$4:$A$5</c:f>
+              <c:f>Filter!$A$4:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Filter!$B$4:$B$5</c:f>
+              <c:f>Filter!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,23 +3864,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Filter!$A$4:$A$5</c:f>
+              <c:f>Filter!$A$4:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Filter!$C$4:$C$5</c:f>
+              <c:f>Filter!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3952,23 +4060,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Filter!$A$4:$A$5</c:f>
+              <c:f>Filter!$A$4:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Filter!$D$4:$D$5</c:f>
+              <c:f>Filter!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,23 +4256,77 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Filter!$A$4:$A$5</c:f>
+              <c:f>Filter!$A$4:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Filter!$E$4:$E$5</c:f>
+              <c:f>Filter!$E$4:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,11 +4343,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1037135984"/>
-        <c:axId val="1037148496"/>
+        <c:axId val="564686624"/>
+        <c:axId val="564678464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1037135984"/>
+        <c:axId val="564686624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,7 +4389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037148496"/>
+        <c:crossAx val="564678464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4181,7 +4397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1037148496"/>
+        <c:axId val="564678464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4231,7 +4447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1037135984"/>
+        <c:crossAx val="564686624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5137,21 +5353,21 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="11">
         <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5219,9 +5435,36 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="11">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -5396,15 +5639,15 @@
     <tabular pivotCacheId="2">
       <items count="10">
         <i x="0" s="1"/>
-        <i x="1"/>
-        <i x="2"/>
-        <i x="3"/>
-        <i x="4"/>
-        <i x="5"/>
-        <i x="6"/>
-        <i x="7"/>
-        <i x="8"/>
-        <i x="9"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
       </items>
     </tabular>
   </data>
@@ -5720,9 +5963,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E5"/>
+  <dimension ref="A3:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -5783,20 +6026,173 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="6">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="7">
+        <v>306</v>
+      </c>
+      <c r="C5" s="7">
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="7">
+        <v>360</v>
+      </c>
+      <c r="C6" s="7">
+        <v>117</v>
+      </c>
+      <c r="D6" s="7">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="7">
+        <v>470</v>
+      </c>
+      <c r="C7" s="7">
+        <v>138</v>
+      </c>
+      <c r="D7" s="7">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="7">
+        <v>644</v>
+      </c>
+      <c r="C8" s="7">
+        <v>210</v>
+      </c>
+      <c r="D8" s="7">
+        <v>70</v>
+      </c>
+      <c r="E8" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="7">
+        <v>838</v>
+      </c>
+      <c r="C9" s="7">
+        <v>272</v>
+      </c>
+      <c r="D9" s="7">
+        <v>71</v>
+      </c>
+      <c r="E9" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="7">
+        <v>994</v>
+      </c>
+      <c r="C10" s="7">
+        <v>342</v>
+      </c>
+      <c r="D10" s="7">
+        <v>88</v>
+      </c>
+      <c r="E10" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>344</v>
+      </c>
+      <c r="D11" s="7">
+        <v>86</v>
+      </c>
+      <c r="E11" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="7">
+        <v>501</v>
+      </c>
+      <c r="C12" s="7">
+        <v>221</v>
+      </c>
+      <c r="D12" s="7">
+        <v>67</v>
+      </c>
+      <c r="E12" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="7">
+        <v>88</v>
+      </c>
+      <c r="C13" s="7">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
-        <v>257</v>
-      </c>
-      <c r="C5" s="7">
-        <v>58</v>
-      </c>
-      <c r="D5" s="7">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7">
-        <v>9</v>
+      <c r="B14" s="7">
+        <v>5458</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1819</v>
+      </c>
+      <c r="D14" s="7">
+        <v>512</v>
+      </c>
+      <c r="E14" s="7">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5816,7 +6212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
